--- a/tables/Вокзал Петров Вал.xlsx
+++ b/tables/Вокзал Петров Вал.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6 +453,326 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Привокзальная площадь</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Входные группы</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Пути движения</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Туалетные комнаты</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Залы ожидания</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.5%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Кассы</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Камеры хранения</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Комнаты отдыха</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.5%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>37.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Платформы</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12.5%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12.5%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.5%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Информация и навигация</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>37.5%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
